--- a/prep/resilience/new_economic_index.xlsx
+++ b/prep/resilience/new_economic_index.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\eschemmel\Documents\github\mhi\prep\resilience\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="1320" windowWidth="24915" windowHeight="12330"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>year</t>
   </si>
@@ -29,24 +34,27 @@
   <si>
     <t>Source</t>
   </si>
+  <si>
+    <t>res_score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="\ \ \ \ \ @"/>
-    <numFmt numFmtId="172" formatCode="\ \ \ \ \ \ @"/>
-    <numFmt numFmtId="177" formatCode="#,##0\ \ "/>
-    <numFmt numFmtId="178" formatCode="\ \ \ @"/>
-    <numFmt numFmtId="179" formatCode="#,##0\ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.0\ "/>
-    <numFmt numFmtId="212" formatCode="#,##0\ \ \ \ \ \ \ \ "/>
-    <numFmt numFmtId="220" formatCode="@\ \ "/>
-    <numFmt numFmtId="223" formatCode="\ \ \ \ \ \ \ \ \ @"/>
-    <numFmt numFmtId="225" formatCode="\ \ @"/>
-    <numFmt numFmtId="227" formatCode="#,##0&quot;      &quot;;\-#,##0&quot;      &quot;;&quot;--      &quot;;@&quot;     &quot;"/>
+    <numFmt numFmtId="164" formatCode="\ \ \ \ \ @"/>
+    <numFmt numFmtId="165" formatCode="\ \ \ \ \ \ @"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ \ "/>
+    <numFmt numFmtId="167" formatCode="\ \ \ @"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.0\ "/>
+    <numFmt numFmtId="170" formatCode="#,##0\ \ \ \ \ \ \ \ "/>
+    <numFmt numFmtId="171" formatCode="@\ \ "/>
+    <numFmt numFmtId="172" formatCode="\ \ \ \ \ \ \ \ \ @"/>
+    <numFmt numFmtId="173" formatCode="\ \ @"/>
+    <numFmt numFmtId="174" formatCode="#,##0&quot;      &quot;;\-#,##0&quot;      &quot;;&quot;--      &quot;;@&quot;     &quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -129,21 +137,21 @@
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
-    <xf numFmtId="223" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
-    <xf numFmtId="212" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyBorder="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="227" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -202,6 +210,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -249,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +293,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,6 +345,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,91 +538,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2002</v>
       </c>
       <c r="B2">
+        <f>C2/100</f>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C2">
         <v>53.7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2007</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">C3/100</f>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C3">
         <v>50.9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2008</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C4">
         <v>47.5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.48700000000000004</v>
+      </c>
+      <c r="C5">
         <v>48.7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C6">
         <v>53.5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="C7">
         <v>48.4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
